--- a/data/trans_camb/P24_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P24_1_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>45,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>13,19</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>10,52</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>21,1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>9,31</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8,64</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,31</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>32,41</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 7,33</t>
+          <t>-12,05; 22,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 12,24</t>
+          <t>-11,62; 24,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 10,47</t>
+          <t>-15,47; 21,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 17,49</t>
+          <t>20,89; 72,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 14,22</t>
+          <t>-5,39; 32,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 12,36</t>
+          <t>-7,08; 30,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 9,7</t>
+          <t>-10,28; 26,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 10,46</t>
+          <t>1,67; 43,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 8,39</t>
+          <t>-5,46; 22,63</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 21,07</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-8,77; 18,79</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16,06; 51,13</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-22,26%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,66%</t>
+          <t>47,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,9%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>310,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>44,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>70,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>40,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>37,95%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18,94%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>142,41%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,47; 39,26</t>
+          <t>-55,07; 323,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-45,77; 75,31</t>
+          <t>-51,84; 326,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,99; 62,41</t>
+          <t>-66,76; 270,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 77,56</t>
+          <t>71,44; 1159,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 64,9</t>
+          <t>-13,41; 169,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,64; 53,13</t>
+          <t>-19,49; 166,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,87; 42,59</t>
+          <t>-28,51; 130,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 50,5</t>
+          <t>3,19; 235,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 39,42</t>
+          <t>-17,71; 136,61</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-19,25; 128,78</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-31,82; 109,31</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>52,73; 316,68</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>14,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>11,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,54</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,85</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>5,99</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 17,61</t>
+          <t>5,07; 28,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 10,18</t>
+          <t>-2,73; 14,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 5,38</t>
+          <t>-6,67; 11,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 3,33</t>
+          <t>1,73; 26,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,39; -0,57</t>
+          <t>-11,96; 8,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 0,95</t>
+          <t>-16,0; 4,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 7,8</t>
+          <t>-16,96; 3,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 2,89</t>
+          <t>-10,49; 10,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 0,66</t>
+          <t>-0,87; 14,38</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 7,05</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 4,78</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 13,7</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>58,39%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>36,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,34%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,15%</t>
+          <t>76,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-21,42%</t>
+          <t>-5,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,2%</t>
+          <t>-14,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>-14,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-10,21%</t>
+          <t>-0,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-17,36%</t>
+          <t>20,68%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-1,83%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-8,13%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 137,56</t>
+          <t>20,88; 242,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 84,45</t>
+          <t>-15,24; 131,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 42,33</t>
+          <t>-32,75; 97,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 9,88</t>
+          <t>4,82; 209,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,42; 1,25</t>
+          <t>-26,58; 24,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 2,41</t>
+          <t>-35,18; 10,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 30,82</t>
+          <t>-36,33; 9,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 11,98</t>
+          <t>-22,42; 29,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 2,72</t>
+          <t>-3,33; 57,61</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-21,58; 28,22</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-28,16; 20,02</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 53,73</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-9,42</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,81</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-7,99</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-5,47</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 9,11</t>
+          <t>-8,9; 15,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 10,27</t>
+          <t>-8,62; 15,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 5,33</t>
+          <t>-16,49; 3,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 8,84</t>
+          <t>-16,06; 4,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 7,53</t>
+          <t>-15,04; 5,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 8,14</t>
+          <t>-18,44; 3,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 6,83</t>
+          <t>-19,52; 0,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 6,33</t>
+          <t>-16,39; 4,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 3,75</t>
+          <t>-9,15; 6,73</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-10,79; 4,8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-14,92; -1,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-13,21; 1,47</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-16,74%</t>
+          <t>-26,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>-18,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,65%</t>
+          <t>-15,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>-21,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>-27,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-7,45%</t>
+          <t>-5,23%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-9,68%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-27,53%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-18,84%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,73; 50,86</t>
+          <t>-32,73; 86,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 58,38</t>
+          <t>-31,24; 83,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,76; 31,79</t>
+          <t>-57,58; 18,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 32,26</t>
+          <t>-54,06; 29,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 26,41</t>
+          <t>-38,7; 20,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 28,72</t>
+          <t>-46,11; 11,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 27,8</t>
+          <t>-48,85; 1,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 25,22</t>
+          <t>-41,32; 15,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 16,06</t>
+          <t>-28,58; 26,89</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-34,27; 18,37</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-44,96; -5,38</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-39,79; 5,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 9,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 7,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 2,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 4,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 1,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 2,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 4,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 2,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-11,72%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 53,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 44,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 13,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 12,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 4,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 7,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 16,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 9,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 0,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9,04</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4,68</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11,89</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-4,19</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-5,31</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-3,55</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>6,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 17,35</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 11,37</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 5,47</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3,59; 24,59</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 5,52</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-10,88; 3,26</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-11,96; 1,5</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 9,95</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 8,73</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 4,65</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; 1,14</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 12,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>49,65%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>25,7%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>65,29%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-3,91%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-11,39%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-14,46%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4,11%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-0,61%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-12,62%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>21,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8,44; 117,19</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-9,47; 74,13</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-34,15; 36,18</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>16,44; 157,47</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-21,42; 17,63</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-27,68; 9,69</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-29,59; 4,57</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-13,14; 30,57</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; 34,73</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-16,31; 18,36</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-26,97; 4,49</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 46,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
